--- a/finalDocs/RM_final.xlsx
+++ b/finalDocs/RM_final.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="135">
   <si>
     <t xml:space="preserve">Instructions For Completing This Document</t>
   </si>
@@ -182,6 +182,9 @@
     <t xml:space="preserve">pathway_normal.py, pathway_drugged,py, pathway_custom.py</t>
   </si>
   <si>
+    <t xml:space="preserve">output_fl.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNQ-1</t>
   </si>
   <si>
@@ -224,6 +227,9 @@
     <t xml:space="preserve">T-UNQ-1.2</t>
   </si>
   <si>
+    <t xml:space="preserve">output_unq.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLT-1</t>
   </si>
   <si>
@@ -254,6 +260,9 @@
     <t xml:space="preserve">fault_one.py</t>
   </si>
   <si>
+    <t xml:space="preserve">output_1f.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLT-1.2</t>
   </si>
   <si>
@@ -269,6 +278,9 @@
     <t xml:space="preserve">fault_two.py, fault_three.py</t>
   </si>
   <si>
+    <t xml:space="preserve">output_2f.csv, output_3f.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRG-1</t>
   </si>
   <si>
@@ -299,6 +311,9 @@
     <t xml:space="preserve">drug_one.py</t>
   </si>
   <si>
+    <t xml:space="preserve">output_drugone.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRG-1.2</t>
   </si>
   <si>
@@ -311,12 +326,15 @@
     <t xml:space="preserve">T-DRG-1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Python, CUDA</t>
+    <t xml:space="preserve">Python, PyCUDA</t>
   </si>
   <si>
     <t xml:space="preserve">drug_two.py, drug_three.py</t>
   </si>
   <si>
+    <t xml:space="preserve">output_drugtwo.csv, output_drugthree.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRG-1.3</t>
   </si>
   <si>
@@ -332,6 +350,9 @@
     <t xml:space="preserve">visual_drugone.py, visual_drugtwo.py, visual_drugthree.py</t>
   </si>
   <si>
+    <t xml:space="preserve">output_1_weight.csv, output_2_weight.csv, output_3_weight.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUS -1</t>
   </si>
   <si>
@@ -362,6 +383,9 @@
     <t xml:space="preserve">drug_custom.py</t>
   </si>
   <si>
+    <t xml:space="preserve">output_custom1.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUS-1.2</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
   </si>
   <si>
     <t xml:space="preserve">visual_drugcustom.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output_custom_weight.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Read Only</t>
@@ -588,8 +615,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -972,7 +998,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1065,74 +1091,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
       <border diagonalUp="false" diagonalDown="false">
@@ -1553,7 +1511,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,11 +1519,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="30723361"/>
-        <c:axId val="62789971"/>
+        <c:axId val="92725672"/>
+        <c:axId val="37011407"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30723361"/>
+        <c:axId val="92725672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,14 +1555,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62789971"/>
+        <c:crossAx val="37011407"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62789971"/>
+        <c:axId val="37011407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30723361"/>
+        <c:crossAx val="92725672"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1684,9 +1642,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>16200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1694,8 +1652,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="80640" y="1419120"/>
-        <a:ext cx="5548680" cy="2950200"/>
+        <a:off x="79920" y="1419120"/>
+        <a:ext cx="5548320" cy="2949840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1714,9 +1672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>549720</xdr:colOff>
+      <xdr:colOff>549360</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1724,8 +1682,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5733360" y="152280"/>
-        <a:ext cx="5832720" cy="4217040"/>
+        <a:off x="5732640" y="152280"/>
+        <a:ext cx="5832360" cy="4216680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1756,7 +1714,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="7" style="2" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="2" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="2" width="16.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2388,11 +2346,11 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2400,16 +2358,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="12" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2486,9 +2444,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="29"/>
-      <c r="J2" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="J2" s="25"/>
       <c r="K2" s="29"/>
       <c r="L2" s="30"/>
       <c r="M2" s="31"/>
@@ -2534,8 +2490,8 @@
       <c r="I3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>43</v>
+      <c r="J3" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="30"/>
@@ -2556,31 +2512,29 @@
     </row>
     <row r="4" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="29"/>
-      <c r="J4" s="25" t="s">
-        <v>49</v>
-      </c>
+      <c r="J4" s="33"/>
       <c r="K4" s="29"/>
       <c r="L4" s="30"/>
       <c r="M4" s="31"/>
@@ -2600,22 +2554,22 @@
     </row>
     <row r="5" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>47</v>
@@ -2624,10 +2578,10 @@
         <v>42</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="30"/>
@@ -2648,22 +2602,22 @@
     </row>
     <row r="6" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>47</v>
@@ -2672,10 +2626,10 @@
         <v>42</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="25" t="s">
         <v>59</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="30"/>
@@ -2696,31 +2650,29 @@
     </row>
     <row r="7" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
         <v>42</v>
       </c>
       <c r="I7" s="29"/>
-      <c r="J7" s="25" t="s">
-        <v>63</v>
-      </c>
+      <c r="J7" s="33"/>
       <c r="K7" s="29"/>
       <c r="L7" s="30"/>
       <c r="M7" s="31"/>
@@ -2740,22 +2692,22 @@
     </row>
     <row r="8" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>47</v>
@@ -2764,10 +2716,10 @@
         <v>42</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="30"/>
@@ -2788,22 +2740,22 @@
     </row>
     <row r="9" s="32" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>47</v>
@@ -2812,10 +2764,10 @@
         <v>42</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="30"/>
@@ -2836,31 +2788,29 @@
     </row>
     <row r="10" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="29"/>
-      <c r="J10" s="25" t="s">
-        <v>78</v>
-      </c>
+      <c r="J10" s="33"/>
       <c r="K10" s="29"/>
       <c r="L10" s="30"/>
       <c r="M10" s="31"/>
@@ -2880,22 +2830,22 @@
     </row>
     <row r="11" s="32" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>47</v>
@@ -2904,10 +2854,10 @@
         <v>42</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="30"/>
@@ -2928,34 +2878,34 @@
     </row>
     <row r="12" s="32" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>42</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="30"/>
@@ -2976,22 +2926,22 @@
     </row>
     <row r="13" s="32" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>47</v>
@@ -3000,10 +2950,10 @@
         <v>42</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="30"/>
@@ -3024,31 +2974,29 @@
     </row>
     <row r="14" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27" t="s">
         <v>42</v>
       </c>
       <c r="I14" s="27"/>
-      <c r="J14" s="25" t="s">
-        <v>99</v>
-      </c>
+      <c r="J14" s="33"/>
       <c r="K14" s="27"/>
       <c r="L14" s="30"/>
       <c r="M14" s="31"/>
@@ -3068,22 +3016,22 @@
     </row>
     <row r="15" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>47</v>
@@ -3092,10 +3040,10 @@
         <v>42</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="30"/>
@@ -3116,22 +3064,22 @@
     </row>
     <row r="16" s="32" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>47</v>
@@ -3140,10 +3088,10 @@
         <v>42</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="K16" s="38"/>
     </row>
@@ -3165,17 +3113,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"In-progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13 H14:H16">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3213,7 +3161,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
@@ -3221,13 +3169,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="11" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39"/>
       <c r="B1" s="40" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="39"/>
@@ -3237,7 +3185,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="42" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K1" s="39"/>
       <c r="L1" s="24"/>
@@ -3259,7 +3207,7 @@
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="39"/>
       <c r="B2" s="43" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C2" s="44" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!B:B,"&gt; ")-1</f>
@@ -3292,7 +3240,7 @@
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="39"/>
       <c r="B3" s="45" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C3" s="44" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!E:E,"&gt; ")-1-COUNTIF('Traceability Matrix'!E:E,"tbd")-COUNTIF('Traceability Matrix'!E:E,"to be done")--COUNTIF('Traceability Matrix'!E:E,"on hold")-COUNTIF('Traceability Matrix'!E:E,"hold")-COUNTIF('Traceability Matrix'!E:E,".")--COUNTIF('Traceability Matrix'!E:E,"-")-COUNTIF('Traceability Matrix'!E:E,"ok")--COUNTIF('Traceability Matrix'!E:E,"yes")--COUNTIF('Traceability Matrix'!E:E,"no")</f>
@@ -3325,7 +3273,7 @@
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="39"/>
       <c r="B4" s="45" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C4" s="44" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!F:F,"&gt; ")-1-COUNTIF('Traceability Matrix'!F:F,"tbd")-COUNTIF('Traceability Matrix'!F:F,"to be done")--COUNTIF('Traceability Matrix'!F:F,"on hold")-COUNTIF('Traceability Matrix'!F:F,"hold")-COUNTIF('Traceability Matrix'!F:F,".")--COUNTIF('Traceability Matrix'!F:F,"-")-COUNTIF('Traceability Matrix'!F:F,"ok")--COUNTIF('Traceability Matrix'!F:F,"yes")--COUNTIF('Traceability Matrix'!F:F,"no")</f>
@@ -3361,7 +3309,7 @@
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="39"/>
       <c r="B5" s="45" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C5" s="44" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!G:G,"&gt; ")-1-COUNTIF('Traceability Matrix'!G:G,"tbd")-COUNTIF('Traceability Matrix'!G:G,"to be done")--COUNTIF('Traceability Matrix'!G:G,"on hold")-COUNTIF('Traceability Matrix'!G:G,"hold")-COUNTIF('Traceability Matrix'!G:G,".")--COUNTIF('Traceability Matrix'!G:G,"-")-COUNTIF('Traceability Matrix'!G:G,"ok")--COUNTIF('Traceability Matrix'!G:G,"yes")--COUNTIF('Traceability Matrix'!G:G,"no")</f>
@@ -3394,7 +3342,7 @@
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="39"/>
       <c r="B6" s="47" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C6" s="48" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!H:H,"Yes")</f>
@@ -3430,7 +3378,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="39"/>
       <c r="B7" s="45" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C7" s="49" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!I:I,"&gt; ")-1-COUNTIF('Traceability Matrix'!I:I,"tbd")-COUNTIF('Traceability Matrix'!I:I,"to be done")--COUNTIF('Traceability Matrix'!I:I,"on hold")-COUNTIF('Traceability Matrix'!I:I,"hold")-COUNTIF('Traceability Matrix'!I:I,".")--COUNTIF('Traceability Matrix'!I:I,"-")-COUNTIF('Traceability Matrix'!I:I,"ok")--COUNTIF('Traceability Matrix'!I:I,"yes")--COUNTIF('Traceability Matrix'!I:I,"no")</f>
@@ -3466,11 +3414,11 @@
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="39"/>
       <c r="B8" s="45" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C8" s="49" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!J:J,"&gt; ")-1-COUNTIF('Traceability Matrix'!J:J,"tbd")-COUNTIF('Traceability Matrix'!J:J,"to be done")--COUNTIF('Traceability Matrix'!J:J,"on hold")-COUNTIF('Traceability Matrix'!J:J,"hold")-COUNTIF('Traceability Matrix'!J:J,".")--COUNTIF('Traceability Matrix'!J:J,"-")-COUNTIF('Traceability Matrix'!J:J,"ok")--COUNTIF('Traceability Matrix'!J:J,"yes")--COUNTIF('Traceability Matrix'!J:J,"no")</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="39"/>
@@ -3560,7 +3508,7 @@
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="39"/>
       <c r="B11" s="53" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C11" s="52" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!C:C,B11)</f>
@@ -3593,7 +3541,7 @@
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
       <c r="B12" s="53" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C12" s="52" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!C:C,B12)</f>
@@ -3626,7 +3574,7 @@
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
       <c r="B13" s="53" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C13" s="52" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!C:C,B13)</f>

--- a/finalDocs/RM_final.xlsx
+++ b/finalDocs/RM_final.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akarb\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7830" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Traceability Matrix" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Statistics" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Traceability Matrix" sheetId="2" r:id="rId2"/>
+    <sheet name="Statistics" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Traceability Matrix'!$A$1:$K$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">'Traceability Matrix'!$A$1:$K$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">'Traceability Matrix'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Traceability Matrix'!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">'Traceability Matrix'!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">'Traceability Matrix'!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,36 +31,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="135">
-  <si>
-    <t xml:space="preserve">Instructions For Completing This Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please use latest circulated version for populating your data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please do not merge cells. Each row represents a distinct requirement. No cell should be left as blank.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each requirement item under your project, complete the following:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rqmt ID: A unique ID number used to identify the specific requirement item. This should preferably contain the requirement area short code as the prefix.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirement Item: This column should be populated with a description of the functional requirement. It can also state the non-functional requirements, e.g. performamnce, portability. Security etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirement Status: This column should be populated with the current status of the functional requirement: 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
+  <si>
+    <t>Instructions For Completing This Document</t>
+  </si>
+  <si>
+    <t>0)</t>
+  </si>
+  <si>
+    <t>Please use latest circulated version for populating your data.</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>Please do not merge cells. Each row represents a distinct requirement. No cell should be left as blank.</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>For each requirement item under your project, complete the following:</t>
+  </si>
+  <si>
+    <t>Rqmt ID: A unique ID number used to identify the specific requirement item. This should preferably contain the requirement area short code as the prefix.</t>
+  </si>
+  <si>
+    <t>Requirement Item: This column should be populated with a description of the functional requirement. It can also state the non-functional requirements, e.g. performamnce, portability. Security etc.</t>
+  </si>
+  <si>
+    <t>Requirement Status: This column should be populated with the current status of the functional requirement: 
 - Open (analysis not started), 
 - In-progress (ongoing analysis), 
 - Cancelled (cancelled after analysis and will not be required in design onwards phases), 
@@ -64,392 +68,414 @@
 For a header requirement item (e.g. Verify user credentials), status should be open if all underlying requirement items (e.g. Validate encrypted password) are in open status else in-progress. All all underlying items are completed / cancelled, then header requirement can be safely marked as completed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Design Module: This column should be populated with the short code of design module.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Reference:  Use subsections, e.g. 5.3.1, 5.3.2 etc. as appropriate. Use comma separation in case of multiple design modules / section references for a single requirement item.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case Number: This column should be populated with the test case number linked to the functional requirement. Use comma separation in case of multiple test cases for a single requirement item.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Platform of Implementation: This column should be populated with the appropriate hardware / software platform, tools etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prototype Prepared?: This column should be populated with Yes / No value, and should be demonstrated if the response is Yes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of Program / Component: This column should be populated with the appropriate name of programme / components.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Result Reference: This column should be populated with the name of the file with test results / output after tests followed from Test Plan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Comments: This column should be populated with any additional comments (optional).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columns A-C should be filled before Internal Assessment (7th Semester Checkpoint Review) showing the completion of Analysis phase. All other columns should be emptied.</t>
+    <t>Design Module: This column should be populated with the short code of design module.</t>
+  </si>
+  <si>
+    <t>Design Reference:  Use subsections, e.g. 5.3.1, 5.3.2 etc. as appropriate. Use comma separation in case of multiple design modules / section references for a single requirement item.</t>
+  </si>
+  <si>
+    <t>Test Case Number: This column should be populated with the test case number linked to the functional requirement. Use comma separation in case of multiple test cases for a single requirement item.</t>
+  </si>
+  <si>
+    <t>Technical Platform of Implementation: This column should be populated with the appropriate hardware / software platform, tools etc.</t>
+  </si>
+  <si>
+    <t>Prototype Prepared?: This column should be populated with Yes / No value, and should be demonstrated if the response is Yes.</t>
+  </si>
+  <si>
+    <t>Name of Program / Component: This column should be populated with the appropriate name of programme / components.</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Test Result Reference: This column should be populated with the name of the file with test results / output after tests followed from Test Plan.</t>
+  </si>
+  <si>
+    <t>Additional Comments: This column should be populated with any additional comments (optional).</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>Columns A-C should be filled before Internal Assessment (7th Semester Checkpoint Review) showing the completion of Analysis phase. All other columns should be emptied.</t>
   </si>
   <si>
     <t xml:space="preserve">4) </t>
   </si>
   <si>
-    <t xml:space="preserve">Columns A-H should be completed before 7th Semester closure showing the completion of Design phase.  All other columns should be emptied.</t>
+    <t>Columns A-H should be completed before 7th Semester closure showing the completion of Design phase.  All other columns should be emptied.</t>
   </si>
   <si>
     <t xml:space="preserve">5) </t>
   </si>
   <si>
-    <t xml:space="preserve">Column I-K should be filled in 8th Semester showing the completion of Coding &amp; Testing phases. All columns are now filled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rqmt ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirement Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirement Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Reference (section# under project Report)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case
+    <t>Column I-K should be filled in 8th Semester showing the completion of Coding &amp; Testing phases. All columns are now filled.</t>
+  </si>
+  <si>
+    <t>Rqmt ID</t>
+  </si>
+  <si>
+    <t>Requirement Item</t>
+  </si>
+  <si>
+    <t>Requirement Status</t>
+  </si>
+  <si>
+    <t>Design Module</t>
+  </si>
+  <si>
+    <t>Design Reference (section# under project Report)</t>
+  </si>
+  <si>
+    <t>Test Case
 Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Technical Platform of Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prototype prepared ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of Program / Component</t>
+    <t>Technical Platform of Implementation</t>
+  </si>
+  <si>
+    <t>Prototype prepared ?</t>
+  </si>
+  <si>
+    <t>Name of Program / Component</t>
   </si>
   <si>
     <t xml:space="preserve">Test Results Reference </t>
   </si>
   <si>
-    <t xml:space="preserve">Additional Comments (if not included in previous columns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNM-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean Network Modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-BNM-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNM-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Boolean Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-BNM-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pathway_normal.py, pathway_drugged,py, pathway_custom.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_fl.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNQ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique Input Vector Identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-UNQ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNQ-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executing Fault-less Boolean Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-UNQ-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fault_zero.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNQ-1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realisation of Unique Input Vector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-UNQ-1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_unq.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLT-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fault Introduction into Boolean Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-FLT-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLT-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulating Single Fault Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-FLT-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fault_one.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_1f.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLT-1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulating Multiple Fault Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-FLT-1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fault_two.py, fault_three.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_2f.csv, output_3f.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRG-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug Combination Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-DRG-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRG-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate Optimum Drug Combination for Single Fault Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-DRG-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drug_one.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_drugone.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRG-1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate Optimum Drug Combination for Multiple Fault Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-DRG-1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python, PyCUDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drug_two.py, drug_three.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_drugtwo.csv, output_drugthree.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRG-1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualisation of Effect of Drug Combination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-DRG-1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visual_drugone.py, visual_drugtwo.py, visual_drugthree.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_1_weight.csv, output_2_weight.csv, output_3_weight.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUS -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search for More Efficient Drug Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-CUS-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUS-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulating Binodal Drugs on Single Faults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-CUS-1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drug_custom.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_custom1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUS-1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualisation and Identification of More Efficient Drugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-CUS-1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visual_drugcustom.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_custom_weight.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read Only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIG/CSE/UD/RQMT_MATX_TEMPL v1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prototype Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In-progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open</t>
+    <t>Additional Comments (if not included in previous columns)</t>
+  </si>
+  <si>
+    <t>BNM-1</t>
+  </si>
+  <si>
+    <t>Boolean Network Modeling</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>BNM</t>
+  </si>
+  <si>
+    <t>5.3.1</t>
+  </si>
+  <si>
+    <t>T-BNM-1</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>BNM-1.1</t>
+  </si>
+  <si>
+    <t>Model Boolean Network</t>
+  </si>
+  <si>
+    <t>5.3.1.1</t>
+  </si>
+  <si>
+    <t>T-BNM-1.1</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>pathway_normal.py, pathway_drugged,py, pathway_custom.py</t>
+  </si>
+  <si>
+    <t>output_fl.csv</t>
+  </si>
+  <si>
+    <t>UNQ-1</t>
+  </si>
+  <si>
+    <t>Unique Input Vector Identification</t>
+  </si>
+  <si>
+    <t>UNQ</t>
+  </si>
+  <si>
+    <t>5.3.2</t>
+  </si>
+  <si>
+    <t>T-UNQ-1</t>
+  </si>
+  <si>
+    <t>UNQ-1.1</t>
+  </si>
+  <si>
+    <t>Executing Fault-less Boolean Network</t>
+  </si>
+  <si>
+    <t>5.3.2.1</t>
+  </si>
+  <si>
+    <t>T-UNQ-1.1</t>
+  </si>
+  <si>
+    <t>fault_zero.py</t>
+  </si>
+  <si>
+    <t>UNQ-1.2</t>
+  </si>
+  <si>
+    <t>Realisation of Unique Input Vector</t>
+  </si>
+  <si>
+    <t>5.3.2.2</t>
+  </si>
+  <si>
+    <t>T-UNQ-1.2</t>
+  </si>
+  <si>
+    <t>output_unq.csv</t>
+  </si>
+  <si>
+    <t>FLT-1</t>
+  </si>
+  <si>
+    <t>Fault Introduction into Boolean Network</t>
+  </si>
+  <si>
+    <t>FLT</t>
+  </si>
+  <si>
+    <t>5.3.3</t>
+  </si>
+  <si>
+    <t>T-FLT-1</t>
+  </si>
+  <si>
+    <t>FLT-1.1</t>
+  </si>
+  <si>
+    <t>Simulating Single Fault Scenario</t>
+  </si>
+  <si>
+    <t>5.3.3.1</t>
+  </si>
+  <si>
+    <t>T-FLT-1.1</t>
+  </si>
+  <si>
+    <t>fault_one.py</t>
+  </si>
+  <si>
+    <t>output_1f.csv</t>
+  </si>
+  <si>
+    <t>FLT-1.2</t>
+  </si>
+  <si>
+    <t>Simulating Multiple Fault Scenario</t>
+  </si>
+  <si>
+    <t>5.3.3.2</t>
+  </si>
+  <si>
+    <t>T-FLT-1.2</t>
+  </si>
+  <si>
+    <t>fault_two.py, fault_three.py</t>
+  </si>
+  <si>
+    <t>output_2f.csv, output_3f.csv</t>
+  </si>
+  <si>
+    <t>DRG-1</t>
+  </si>
+  <si>
+    <t>Drug Combination Application</t>
+  </si>
+  <si>
+    <t>DRG</t>
+  </si>
+  <si>
+    <t>5.3.4</t>
+  </si>
+  <si>
+    <t>T-DRG-1</t>
+  </si>
+  <si>
+    <t>DRG-1.1</t>
+  </si>
+  <si>
+    <t>Generate Optimum Drug Combination for Single Fault Scenario</t>
+  </si>
+  <si>
+    <t>5.3.4.1</t>
+  </si>
+  <si>
+    <t>T-DRG-1.1</t>
+  </si>
+  <si>
+    <t>drug_one.py</t>
+  </si>
+  <si>
+    <t>output_drugone.csv</t>
+  </si>
+  <si>
+    <t>DRG-1.2</t>
+  </si>
+  <si>
+    <t>Generate Optimum Drug Combination for Multiple Fault Scenario</t>
+  </si>
+  <si>
+    <t>5.3.4.2</t>
+  </si>
+  <si>
+    <t>T-DRG-1.2</t>
+  </si>
+  <si>
+    <t>Python, PyCUDA</t>
+  </si>
+  <si>
+    <t>drug_two.py, drug_three.py</t>
+  </si>
+  <si>
+    <t>output_drugtwo.csv, output_drugthree.csv</t>
+  </si>
+  <si>
+    <t>DRG-1.3</t>
+  </si>
+  <si>
+    <t>Visualisation of Effect of Drug Combination</t>
+  </si>
+  <si>
+    <t>5.3.4.3</t>
+  </si>
+  <si>
+    <t>T-DRG-1.3</t>
+  </si>
+  <si>
+    <t>visual_drugone.py, visual_drugtwo.py, visual_drugthree.py</t>
+  </si>
+  <si>
+    <t>output_1_weight.csv, output_2_weight.csv, output_3_weight.csv</t>
+  </si>
+  <si>
+    <t>CUS -1</t>
+  </si>
+  <si>
+    <t>Search for More Efficient Drug Points</t>
+  </si>
+  <si>
+    <t>CUS</t>
+  </si>
+  <si>
+    <t>5.3.5</t>
+  </si>
+  <si>
+    <t>T-CUS-1</t>
+  </si>
+  <si>
+    <t>CUS-1.1</t>
+  </si>
+  <si>
+    <t>Simulating Binodal Drugs on Single Faults</t>
+  </si>
+  <si>
+    <t>5.3.5.1</t>
+  </si>
+  <si>
+    <t>T-CUS-1.1</t>
+  </si>
+  <si>
+    <t>drug_custom.py</t>
+  </si>
+  <si>
+    <t>output_custom1.csv</t>
+  </si>
+  <si>
+    <t>CUS-1.2</t>
+  </si>
+  <si>
+    <t>Visualisation and Identification of More Efficient Drugs</t>
+  </si>
+  <si>
+    <t>5.3.5.2</t>
+  </si>
+  <si>
+    <t>T-CUS-1.2</t>
+  </si>
+  <si>
+    <t>visual_drugcustom.py</t>
+  </si>
+  <si>
+    <t>output_custom_weight.csv</t>
+  </si>
+  <si>
+    <t>Read Only</t>
+  </si>
+  <si>
+    <t>TIG/CSE/UD/RQMT_MATX_TEMPL v1.5</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Designed</t>
+  </si>
+  <si>
+    <t>Test Case Coverage</t>
+  </si>
+  <si>
+    <t>Technical Platform</t>
+  </si>
+  <si>
+    <t>Prototype Coverage</t>
+  </si>
+  <si>
+    <t>Program coverage</t>
+  </si>
+  <si>
+    <t>Test Results</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>In-progress</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>output_fl.csv, output_unq.csv</t>
+  </si>
+  <si>
+    <t>fault_one.py, fault_two.py, fault_three.py</t>
+  </si>
+  <si>
+    <t>output_1f.csv, output_2f.csv, output_3f.csv</t>
+  </si>
+  <si>
+    <t>drug_one.py, drug_two.py, drug_three.py, visual_drugone.py, visual_drugtwo.py, visual_drugthree.py</t>
+  </si>
+  <si>
+    <t>output_drugone.csv, output_drugtwo.csv, output_drugthree.csv, output_1_weight.csv, output_2_weight.csv, output_3_weight.csv</t>
+  </si>
+  <si>
+    <t>Pyton</t>
+  </si>
+  <si>
+    <t>drug_custom.py, visual_drugcustom.py</t>
+  </si>
+  <si>
+    <t>output_custom1.csv, output_custom_weight.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -458,22 +484,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF4F81BD"/>
       <name val="Arial"/>
@@ -481,7 +492,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="7"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -495,21 +506,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -517,15 +528,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -558,7 +569,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -573,7 +584,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -600,41 +611,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -676,329 +658,301 @@
     </fill>
   </fills>
   <borders count="10">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1008,12 +962,27 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1025,12 +994,27 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1042,12 +1026,27 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1059,12 +1058,27 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1076,32 +1090,31 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1160,15 +1173,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1177,7 +1208,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1185,7 +1216,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+              <a:rPr sz="1200" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1206,19 +1237,24 @@
       <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="d9d9d9"/>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="d9d9d9"/>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1226,6 +1262,7 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
+      <c:layout/>
       <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -1233,18 +1270,18 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92d050"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1253,9 +1290,10 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffffcc"/>
+                <a:srgbClr val="FFFFCC"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1264,9 +1302,10 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffcc66"/>
+                <a:srgbClr val="FFCC66"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1275,9 +1314,10 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="d99694"/>
+                <a:srgbClr val="D99694"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1285,50 +1325,24 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1372,10 +1386,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="d9d9d9"/>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1384,22 +1407,30 @@
     </c:plotArea>
     <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1408,7 +1439,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="808080"/>
                 </a:solidFill>
@@ -1416,7 +1447,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="808080"/>
                 </a:solidFill>
@@ -1431,6 +1462,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -1440,7 +1472,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1448,14 +1480,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="@" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1490,7 +1534,7 @@
             <c:numRef>
               <c:f>Statistics!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
@@ -1502,28 +1546,36 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="92725672"/>
-        <c:axId val="37011407"/>
+        <c:axId val="1892605136"/>
+        <c:axId val="1892606224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92725672"/>
+        <c:axId val="1892605136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,23 +1598,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="808080"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37011407"/>
+        <c:crossAx val="1892606224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37011407"/>
+        <c:axId val="1892606224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +1626,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1592,21 +1646,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+              <a:defRPr sz="1100" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="808080"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92725672"/>
+        <c:crossAx val="1892605136"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1615,24 +1671,26 @@
     </c:plotArea>
     <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1646,14 +1704,14 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="79920" y="1419120"/>
-        <a:ext cx="5548320" cy="2949840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1676,14 +1734,14 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5732640" y="152280"/>
-        <a:ext cx="5832360" cy="4216680"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1696,681 +1754,930 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="127.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="7" style="2" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="2" width="16.41"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="127.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="3" customWidth="1"/>
+    <col min="4" max="6" width="8.5703125" style="3" customWidth="1"/>
+    <col min="7" max="14" width="8.28515625" style="3" customWidth="1"/>
+    <col min="15" max="1025" width="16.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="str">
-        <f aca="false">CONCATENATE(Statistics!J1)</f>
+    <row r="1" spans="1:26" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="str">
+        <f>CONCATENATE(Statistics!J1)</f>
         <v>TIG/CSE/UD/RQMT_MATX_TEMPL v1.5</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <f aca="false">A2</f>
+      <c r="B2" s="5" t="str">
+        <f>A2</f>
         <v>TIG/CSE/UD/RQMT_MATX_TEMPL v1.5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+    </row>
+    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+    </row>
+    <row r="18" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+    </row>
+    <row r="19" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+    </row>
+    <row r="20" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="dcc7" objects="true" scenarios="true"/>
+  <sheetProtection password="DCC7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"In-progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="12" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.41"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="12" max="21" width="8.28515625" customWidth="1"/>
+    <col min="22" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
@@ -2420,7 +2727,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
     </row>
-    <row r="2" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" s="32" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
@@ -2439,12 +2746,18 @@
       <c r="F2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="H2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="25"/>
+      <c r="I2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>49</v>
+      </c>
       <c r="K2" s="29"/>
       <c r="L2" s="30"/>
       <c r="M2" s="31"/>
@@ -2462,7 +2775,7 @@
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
     </row>
-    <row r="3" s="32" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" s="32" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>43</v>
       </c>
@@ -2510,7 +2823,7 @@
       <c r="Y3" s="31"/>
       <c r="Z3" s="31"/>
     </row>
-    <row r="4" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" s="32" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>50</v>
       </c>
@@ -2529,12 +2842,18 @@
       <c r="F4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="H4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="33"/>
+      <c r="I4" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>135</v>
+      </c>
       <c r="K4" s="29"/>
       <c r="L4" s="30"/>
       <c r="M4" s="31"/>
@@ -2552,7 +2871,7 @@
       <c r="Y4" s="31"/>
       <c r="Z4" s="31"/>
     </row>
-    <row r="5" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>55</v>
       </c>
@@ -2600,7 +2919,7 @@
       <c r="Y5" s="31"/>
       <c r="Z5" s="31"/>
     </row>
-    <row r="6" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>60</v>
       </c>
@@ -2648,7 +2967,7 @@
       <c r="Y6" s="31"/>
       <c r="Z6" s="31"/>
     </row>
-    <row r="7" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" s="32" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>65</v>
       </c>
@@ -2667,12 +2986,18 @@
       <c r="F7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="H7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="33"/>
+      <c r="I7" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>137</v>
+      </c>
       <c r="K7" s="29"/>
       <c r="L7" s="30"/>
       <c r="M7" s="31"/>
@@ -2690,7 +3015,7 @@
       <c r="Y7" s="31"/>
       <c r="Z7" s="31"/>
     </row>
-    <row r="8" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>70</v>
       </c>
@@ -2738,7 +3063,7 @@
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
     </row>
-    <row r="9" s="32" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" s="32" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>76</v>
       </c>
@@ -2786,7 +3111,7 @@
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
     </row>
-    <row r="10" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" s="32" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>82</v>
       </c>
@@ -2805,12 +3130,18 @@
       <c r="F10" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>97</v>
+      </c>
       <c r="H10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="33"/>
+      <c r="I10" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>139</v>
+      </c>
       <c r="K10" s="29"/>
       <c r="L10" s="30"/>
       <c r="M10" s="31"/>
@@ -2828,7 +3159,7 @@
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
     </row>
-    <row r="11" s="32" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" s="32" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>87</v>
       </c>
@@ -2876,7 +3207,7 @@
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
     </row>
-    <row r="12" s="32" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" s="32" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>93</v>
       </c>
@@ -2924,7 +3255,7 @@
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
     </row>
-    <row r="13" s="32" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" s="32" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>100</v>
       </c>
@@ -2972,7 +3303,7 @@
       <c r="Y13" s="31"/>
       <c r="Z13" s="31"/>
     </row>
-    <row r="14" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" s="32" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>106</v>
       </c>
@@ -2991,12 +3322,18 @@
       <c r="F14" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="H14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="33"/>
+      <c r="I14" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>142</v>
+      </c>
       <c r="K14" s="27"/>
       <c r="L14" s="30"/>
       <c r="M14" s="31"/>
@@ -3014,7 +3351,7 @@
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
     </row>
-    <row r="15" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>111</v>
       </c>
@@ -3062,7 +3399,7 @@
       <c r="Y15" s="31"/>
       <c r="Z15" s="31"/>
     </row>
-    <row r="16" s="32" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" s="32" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>117</v>
       </c>
@@ -3098,81 +3435,72 @@
   </sheetData>
   <autoFilter ref="A1:K13"/>
   <conditionalFormatting sqref="H2:H209">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H209">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16 H2:H209">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"In-progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13 H14:H16">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C16" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C2:C16">
       <formula1>"Open,In-progress,Cancelled,Completed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:H16" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="H2:H16">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="11" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.41"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39"/>
       <c r="B1" s="40" t="s">
         <v>123</v>
@@ -3204,13 +3532,13 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="44" t="n">
-        <f aca="false">COUNTIF('Traceability Matrix'!B:B,"&gt; ")-1</f>
+      <c r="C2" s="44">
+        <f>COUNTIF('Traceability Matrix'!B:B,"&gt; ")-1</f>
         <v>15</v>
       </c>
       <c r="D2" s="39"/>
@@ -3237,13 +3565,13 @@
       <c r="Y2" s="24"/>
       <c r="Z2" s="24"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="44" t="n">
-        <f aca="false">COUNTIF('Traceability Matrix'!E:E,"&gt; ")-1-COUNTIF('Traceability Matrix'!E:E,"tbd")-COUNTIF('Traceability Matrix'!E:E,"to be done")--COUNTIF('Traceability Matrix'!E:E,"on hold")-COUNTIF('Traceability Matrix'!E:E,"hold")-COUNTIF('Traceability Matrix'!E:E,".")--COUNTIF('Traceability Matrix'!E:E,"-")-COUNTIF('Traceability Matrix'!E:E,"ok")--COUNTIF('Traceability Matrix'!E:E,"yes")--COUNTIF('Traceability Matrix'!E:E,"no")</f>
+      <c r="C3" s="44">
+        <f>COUNTIF('Traceability Matrix'!E:E,"&gt; ")-1-COUNTIF('Traceability Matrix'!E:E,"tbd")-COUNTIF('Traceability Matrix'!E:E,"to be done")--COUNTIF('Traceability Matrix'!E:E,"on hold")-COUNTIF('Traceability Matrix'!E:E,"hold")-COUNTIF('Traceability Matrix'!E:E,".")--COUNTIF('Traceability Matrix'!E:E,"-")-COUNTIF('Traceability Matrix'!E:E,"ok")--COUNTIF('Traceability Matrix'!E:E,"yes")--COUNTIF('Traceability Matrix'!E:E,"no")</f>
         <v>15</v>
       </c>
       <c r="D3" s="46"/>
@@ -3270,17 +3598,17 @@
       <c r="Y3" s="24"/>
       <c r="Z3" s="24"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="44" t="n">
-        <f aca="false">COUNTIF('Traceability Matrix'!F:F,"&gt; ")-1-COUNTIF('Traceability Matrix'!F:F,"tbd")-COUNTIF('Traceability Matrix'!F:F,"to be done")--COUNTIF('Traceability Matrix'!F:F,"on hold")-COUNTIF('Traceability Matrix'!F:F,"hold")-COUNTIF('Traceability Matrix'!F:F,".")--COUNTIF('Traceability Matrix'!F:F,"-")-COUNTIF('Traceability Matrix'!F:F,"ok")--COUNTIF('Traceability Matrix'!F:F,"yes")--COUNTIF('Traceability Matrix'!F:F,"no")</f>
+      <c r="C4" s="44">
+        <f>COUNTIF('Traceability Matrix'!F:F,"&gt; ")-1-COUNTIF('Traceability Matrix'!F:F,"tbd")-COUNTIF('Traceability Matrix'!F:F,"to be done")--COUNTIF('Traceability Matrix'!F:F,"on hold")-COUNTIF('Traceability Matrix'!F:F,"hold")-COUNTIF('Traceability Matrix'!F:F,".")--COUNTIF('Traceability Matrix'!F:F,"-")-COUNTIF('Traceability Matrix'!F:F,"ok")--COUNTIF('Traceability Matrix'!F:F,"yes")--COUNTIF('Traceability Matrix'!F:F,"no")</f>
         <v>15</v>
       </c>
       <c r="D4" s="46" t="str">
-        <f aca="false">IF(C4&gt;C$3,"Fill design details!","")</f>
+        <f>IF(C4&gt;C$3,"Fill design details!","")</f>
         <v/>
       </c>
       <c r="E4" s="39"/>
@@ -3306,14 +3634,14 @@
       <c r="Y4" s="24"/>
       <c r="Z4" s="24"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="44" t="n">
-        <f aca="false">COUNTIF('Traceability Matrix'!G:G,"&gt; ")-1-COUNTIF('Traceability Matrix'!G:G,"tbd")-COUNTIF('Traceability Matrix'!G:G,"to be done")--COUNTIF('Traceability Matrix'!G:G,"on hold")-COUNTIF('Traceability Matrix'!G:G,"hold")-COUNTIF('Traceability Matrix'!G:G,".")--COUNTIF('Traceability Matrix'!G:G,"-")-COUNTIF('Traceability Matrix'!G:G,"ok")--COUNTIF('Traceability Matrix'!G:G,"yes")--COUNTIF('Traceability Matrix'!G:G,"no")</f>
-        <v>10</v>
+      <c r="C5" s="44">
+        <f>COUNTIF('Traceability Matrix'!G:G,"&gt; ")-1-COUNTIF('Traceability Matrix'!G:G,"tbd")-COUNTIF('Traceability Matrix'!G:G,"to be done")--COUNTIF('Traceability Matrix'!G:G,"on hold")-COUNTIF('Traceability Matrix'!G:G,"hold")-COUNTIF('Traceability Matrix'!G:G,".")--COUNTIF('Traceability Matrix'!G:G,"-")-COUNTIF('Traceability Matrix'!G:G,"ok")--COUNTIF('Traceability Matrix'!G:G,"yes")--COUNTIF('Traceability Matrix'!G:G,"no")</f>
+        <v>15</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="39"/>
@@ -3339,17 +3667,17 @@
       <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="48" t="n">
-        <f aca="false">COUNTIF('Traceability Matrix'!H:H,"Yes")</f>
+      <c r="C6" s="48">
+        <f>COUNTIF('Traceability Matrix'!H:H,"Yes")</f>
         <v>15</v>
       </c>
       <c r="D6" s="46" t="str">
-        <f aca="false">IF(C6&gt;C$3,"Fill design details!","")</f>
+        <f>IF(C6&gt;C$3,"Fill design details!","")</f>
         <v/>
       </c>
       <c r="E6" s="39"/>
@@ -3375,17 +3703,17 @@
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="49" t="n">
-        <f aca="false">COUNTIF('Traceability Matrix'!I:I,"&gt; ")-1-COUNTIF('Traceability Matrix'!I:I,"tbd")-COUNTIF('Traceability Matrix'!I:I,"to be done")--COUNTIF('Traceability Matrix'!I:I,"on hold")-COUNTIF('Traceability Matrix'!I:I,"hold")-COUNTIF('Traceability Matrix'!I:I,".")--COUNTIF('Traceability Matrix'!I:I,"-")-COUNTIF('Traceability Matrix'!I:I,"ok")--COUNTIF('Traceability Matrix'!I:I,"yes")--COUNTIF('Traceability Matrix'!I:I,"no")</f>
-        <v>10</v>
+      <c r="C7" s="49">
+        <f>COUNTIF('Traceability Matrix'!I:I,"&gt; ")-1-COUNTIF('Traceability Matrix'!I:I,"tbd")-COUNTIF('Traceability Matrix'!I:I,"to be done")--COUNTIF('Traceability Matrix'!I:I,"on hold")-COUNTIF('Traceability Matrix'!I:I,"hold")-COUNTIF('Traceability Matrix'!I:I,".")--COUNTIF('Traceability Matrix'!I:I,"-")-COUNTIF('Traceability Matrix'!I:I,"ok")--COUNTIF('Traceability Matrix'!I:I,"yes")--COUNTIF('Traceability Matrix'!I:I,"no")</f>
+        <v>15</v>
       </c>
       <c r="D7" s="46" t="str">
-        <f aca="false">IF(C7&gt;C$3,"Fill design details!","")</f>
+        <f>IF(C7&gt;C$3,"Fill design details!","")</f>
         <v/>
       </c>
       <c r="E7" s="39"/>
@@ -3411,14 +3739,14 @@
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="49" t="n">
-        <f aca="false">COUNTIF('Traceability Matrix'!J:J,"&gt; ")-1-COUNTIF('Traceability Matrix'!J:J,"tbd")-COUNTIF('Traceability Matrix'!J:J,"to be done")--COUNTIF('Traceability Matrix'!J:J,"on hold")-COUNTIF('Traceability Matrix'!J:J,"hold")-COUNTIF('Traceability Matrix'!J:J,".")--COUNTIF('Traceability Matrix'!J:J,"-")-COUNTIF('Traceability Matrix'!J:J,"ok")--COUNTIF('Traceability Matrix'!J:J,"yes")--COUNTIF('Traceability Matrix'!J:J,"no")</f>
-        <v>10</v>
+      <c r="C8" s="49">
+        <f>COUNTIF('Traceability Matrix'!J:J,"&gt; ")-1-COUNTIF('Traceability Matrix'!J:J,"tbd")-COUNTIF('Traceability Matrix'!J:J,"to be done")--COUNTIF('Traceability Matrix'!J:J,"on hold")-COUNTIF('Traceability Matrix'!J:J,"hold")-COUNTIF('Traceability Matrix'!J:J,".")--COUNTIF('Traceability Matrix'!J:J,"-")-COUNTIF('Traceability Matrix'!J:J,"ok")--COUNTIF('Traceability Matrix'!J:J,"yes")--COUNTIF('Traceability Matrix'!J:J,"no")</f>
+        <v>15</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="39"/>
@@ -3444,7 +3772,7 @@
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="50"/>
       <c r="C9" s="41"/>
@@ -3472,13 +3800,13 @@
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="52" t="n">
-        <f aca="false">COUNTIF('Traceability Matrix'!C:C,B10)</f>
+      <c r="C10" s="52">
+        <f>COUNTIF('Traceability Matrix'!C:C,B10)</f>
         <v>15</v>
       </c>
       <c r="D10" s="39"/>
@@ -3505,13 +3833,13 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="52" t="n">
-        <f aca="false">COUNTIF('Traceability Matrix'!C:C,B11)</f>
+      <c r="C11" s="52">
+        <f>COUNTIF('Traceability Matrix'!C:C,B11)</f>
         <v>0</v>
       </c>
       <c r="D11" s="39"/>
@@ -3538,13 +3866,13 @@
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="52" t="n">
-        <f aca="false">COUNTIF('Traceability Matrix'!C:C,B12)</f>
+      <c r="C12" s="52">
+        <f>COUNTIF('Traceability Matrix'!C:C,B12)</f>
         <v>0</v>
       </c>
       <c r="D12" s="39"/>
@@ -3571,13 +3899,13 @@
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="52" t="n">
-        <f aca="false">COUNTIF('Traceability Matrix'!C:C,B13)</f>
+      <c r="C13" s="52">
+        <f>COUNTIF('Traceability Matrix'!C:C,B13)</f>
         <v>0</v>
       </c>
       <c r="D13" s="39"/>
@@ -3605,19 +3933,14 @@
       <c r="Z13" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="dcc7" objects="true" scenarios="true" selectLockedCells="true" selectUnlockedCells="true"/>
+  <sheetProtection password="DCC7" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="C3:C8">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>